--- a/xlsx/L1-2.xlsx
+++ b/xlsx/L1-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QI-104\jekyll-gitbook\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QI-104\IHI-QI104\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4203553F-3691-439A-86F9-742DD5FA7378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1401EC-B2D0-41C8-8C92-F4CB76722D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>std</t>
   </si>
   <si>
-    <t>ave</t>
+    <t>baseline</t>
   </si>
   <si>
-    <t>baseline</t>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -768,160 +768,160 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.91467617709359406</c:v>
+                  <c:v>0.84698482125746999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,7 +3057,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3095,11 +3095,11 @@
       </c>
       <c r="D2" s="2">
         <f>H$3+(H$2* 3 )</f>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E2" s="2">
         <f>H$3-(H$2* 3 )</f>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -3122,18 +3122,18 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D53" si="0">H$3+(H$2* 3 )</f>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E53" si="1">H$3-(H$2* 3 )</f>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(B:B)</f>
-        <v>5.3831232311297006</v>
+        <f>MEDIAN(B:B)</f>
+        <v>5.3154318752935765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3149,11 +3149,11 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3189,11 +3189,11 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3209,11 +3209,11 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3229,11 +3229,11 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3249,11 +3249,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3269,11 +3269,11 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3289,11 +3289,11 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3309,11 +3309,11 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3329,11 +3329,11 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3349,11 +3349,11 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3385,11 +3385,11 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,11 +3405,11 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3425,11 +3425,11 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3445,11 +3445,11 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,11 +3465,11 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3505,11 +3505,11 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,11 +3525,11 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3545,11 +3545,11 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3565,11 +3565,11 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,11 +3585,11 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,11 +3605,11 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,11 +3625,11 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,11 +3665,11 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,11 +3705,11 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3745,11 +3745,11 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,11 +3785,11 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3825,11 +3825,11 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3845,11 +3845,11 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3865,11 +3865,11 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3885,11 +3885,11 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3905,11 +3905,11 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3925,11 +3925,11 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,11 +3945,11 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,11 +3985,11 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,11 +4005,11 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4025,11 +4025,11 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,11 +4065,11 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4105,11 +4105,11 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,11 +4125,11 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
-        <v>9.8515702851658062</v>
+        <v>9.7838789293296831</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>0.91467617709359406</v>
+        <v>0.84698482125746999</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/L1-2.xlsx
+++ b/xlsx/L1-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QI-104\IHI-QI104\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1401EC-B2D0-41C8-8C92-F4CB76722D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF09B5-0096-4C30-8FE7-4D0177EC7EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -407,7 +406,7 @@
             <c:numRef>
               <c:f>'L1'!$B$2:$B$53</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>5.1530413089687421</c:v>
@@ -1129,7 +1128,7 @@
             <c:numRef>
               <c:f>'L1'!$C$2:$C$53</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>5.1530413089687421</c:v>
@@ -1501,7 +1500,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3057,7 +3056,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3089,15 +3088,15 @@
       <c r="B2" s="1">
         <v>5.1530413089687421</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>B2</f>
         <v>5.1530413089687421</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>H$3+(H$2* 3 )</f>
         <v>9.7838789293296831</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f>H$3-(H$2* 3 )</f>
         <v>0.84698482125746999</v>
       </c>
@@ -3116,15 +3115,15 @@
       <c r="B3" s="1">
         <v>4.0954059070930224</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>C$2</f>
         <v>5.1530413089687421</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D53" si="0">H$3+(H$2* 3 )</f>
         <v>9.7838789293296831</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E53" si="1">H$3-(H$2* 3 )</f>
         <v>0.84698482125746999</v>
       </c>
@@ -3143,15 +3142,15 @@
       <c r="B4" s="1">
         <v>4.5943494198374673</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" ref="C4:C53" si="2">C$2</f>
         <v>5.1530413089687421</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3163,15 +3162,15 @@
       <c r="B5" s="1">
         <v>7.6393267019633271</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3183,15 +3182,15 @@
       <c r="B6" s="1">
         <v>3.1005619085876628</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3203,15 +3202,15 @@
       <c r="B7" s="1">
         <v>5.3197840698422949</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3223,15 +3222,15 @@
       <c r="B8" s="1">
         <v>4.0665241452581107</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3243,15 +3242,15 @@
       <c r="B9" s="1">
         <v>7.2050144137075227</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3263,15 +3262,15 @@
       <c r="B10" s="1">
         <v>5.3409943846649703</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3283,15 +3282,15 @@
       <c r="B11" s="1">
         <v>7.1482092027772826</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3303,15 +3302,15 @@
       <c r="B12" s="1">
         <v>3.8779734357075952</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3323,15 +3322,15 @@
       <c r="B13" s="1">
         <v>3.3150046848766981</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3343,15 +3342,15 @@
       <c r="B14" s="1">
         <v>7.555710089756869</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3361,15 +3360,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3379,15 +3378,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3399,15 +3398,15 @@
       <c r="B17" s="1">
         <v>5.4221224313444747</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3419,15 +3418,15 @@
       <c r="B18" s="1">
         <v>5.7552291383214058</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3439,15 +3438,15 @@
       <c r="B19" s="1">
         <v>6.8204787267303102</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3459,15 +3458,15 @@
       <c r="B20" s="1">
         <v>4.0759926522959651</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3479,15 +3478,15 @@
       <c r="B21" s="1">
         <v>3.2559808611488119</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3499,15 +3498,15 @@
       <c r="B22" s="1">
         <v>3.6746491065817146</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3519,15 +3518,15 @@
       <c r="B23" s="1">
         <v>6.8390627504248052</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3539,15 +3538,15 @@
       <c r="B24" s="1">
         <v>6.4681828082838617</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3559,15 +3558,15 @@
       <c r="B25" s="1">
         <v>7.8624827158895698</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3579,15 +3578,15 @@
       <c r="B26" s="1">
         <v>7.0583269308621883</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3599,15 +3598,15 @@
       <c r="B27" s="1">
         <v>3.5430589252308038</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3619,15 +3618,15 @@
       <c r="B28" s="1">
         <v>3.9447878457229946</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3639,15 +3638,15 @@
       <c r="B29" s="1">
         <v>6.3924618657014882</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3659,15 +3658,15 @@
       <c r="B30" s="1">
         <v>3.214380551268861</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3679,15 +3678,15 @@
       <c r="B31" s="1">
         <v>5.8113515624273209</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3699,15 +3698,15 @@
       <c r="B32" s="1">
         <v>6.6638751184812497</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3719,15 +3718,15 @@
       <c r="B33" s="1">
         <v>7.6934256538946606</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3739,15 +3738,15 @@
       <c r="B34" s="1">
         <v>3.916898026992877</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="C34" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3759,15 +3758,15 @@
       <c r="B35" s="1">
         <v>5.9338158623080286</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="C35" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E35" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3779,15 +3778,15 @@
       <c r="B36" s="1">
         <v>5.1056158240019922</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="C36" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E36" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3799,15 +3798,15 @@
       <c r="B37" s="1">
         <v>4.0812833558478143</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="C37" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E37" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3819,15 +3818,15 @@
       <c r="B38" s="1">
         <v>6.2744022206576773</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="C38" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3839,15 +3838,15 @@
       <c r="B39" s="1">
         <v>3.8078765542056314</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="C39" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E39" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3859,15 +3858,15 @@
       <c r="B40" s="1">
         <v>6.8501538724696456</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="C40" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E40" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3879,15 +3878,15 @@
       <c r="B41" s="1">
         <v>4.828880642366161</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="C41" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E41" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3899,15 +3898,15 @@
       <c r="B42" s="1">
         <v>6.9640933577555009</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="C42" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E42" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3919,15 +3918,15 @@
       <c r="B43" s="1">
         <v>6.6508871810430383</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="C43" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E43" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3939,15 +3938,15 @@
       <c r="B44" s="1">
         <v>4.2006919136498544</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="C44" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E44" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3959,15 +3958,15 @@
       <c r="B45" s="1">
         <v>3.0337798814707018</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="C45" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E45" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3979,15 +3978,15 @@
       <c r="B46" s="1">
         <v>6.9848003153180667</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="C46" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E46" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -3999,15 +3998,15 @@
       <c r="B47" s="1">
         <v>3.5676222447039212</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="C47" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E47" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -4019,15 +4018,15 @@
       <c r="B48" s="1">
         <v>5.2882081484461736</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="C48" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E48" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -4039,15 +4038,15 @@
       <c r="B49" s="1">
         <v>7.2069367492096408</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="C49" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E49" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -4059,15 +4058,15 @@
       <c r="B50" s="1">
         <v>4.2577025708189895</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="C50" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E50" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -4079,15 +4078,15 @@
       <c r="B51" s="1">
         <v>5.3110796807448581</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="C51" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -4099,15 +4098,15 @@
       <c r="B52" s="1">
         <v>4.8742560969071134</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="C52" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E52" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
@@ -4119,15 +4118,15 @@
       <c r="B53" s="1">
         <v>7.1094277399152759</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="C53" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E53" s="1">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>

--- a/xlsx/L1-2.xlsx
+++ b/xlsx/L1-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QI-104\IHI-QI104\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF09B5-0096-4C30-8FE7-4D0177EC7EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A410DDA-5833-4F27-A733-51AA50F9B4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>perc</t>
-  </si>
-  <si>
     <t>UCL</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -89,9 +89,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,7 +213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>perc</c:v>
+                  <c:v>%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3056,52 +3061,54 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B2</f>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D2" s="2">
+        <f>H$3+(H$2* 3 )</f>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E2" s="2">
+        <f>H$3-(H$2* 3 )</f>
+        <v>0.84698482125746999</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="C2" s="1">
-        <f>B2</f>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D2" s="1">
-        <f>H$3+(H$2* 3 )</f>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E2" s="1">
-        <f>H$3-(H$2* 3 )</f>
-        <v>0.84698482125746999</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
       </c>
       <c r="H2">
         <f>STDEV(B2:B53)</f>
@@ -3109,26 +3116,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>4.0954059070930224</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <f>C$2</f>
         <v>5.1530413089687421</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D53" si="0">H$3+(H$2* 3 )</f>
         <v>9.7838789293296831</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E53" si="1">H$3-(H$2* 3 )</f>
         <v>0.84698482125746999</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <f>MEDIAN(B:B)</f>
@@ -3136,997 +3143,997 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>4.5943494198374673</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f t="shared" ref="C4:C53" si="2">C$2</f>
         <v>5.1530413089687421</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>7.6393267019633271</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>3.1005619085876628</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>5.3197840698422949</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>4.0665241452581107</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>7.2050144137075227</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>5.3409943846649703</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>7.1482092027772826</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>3.8779734357075952</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>3.3150046848766981</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C13" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>7.555710089756869</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>5.4221224313444747</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>5.7552291383214058</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>6.8204787267303102</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>4.0759926522959651</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>3.2559808611488119</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>3.6746491065817146</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>6.8390627504248052</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>6.4681828082838617</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>7.8624827158895698</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>7.0583269308621883</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>3.5430589252308038</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>3.9447878457229946</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>6.3924618657014882</v>
       </c>
-      <c r="C29" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>3.214380551268861</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>5.8113515624273209</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>6.6638751184812497</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>7.6934256538946606</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>3.916898026992877</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>5.9338158623080286</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>5.1056158240019922</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>4.0812833558478143</v>
       </c>
-      <c r="C37" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>6.2744022206576773</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>3.8078765542056314</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E39" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>6.8501538724696456</v>
       </c>
-      <c r="C40" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E40" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>4.828880642366161</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E41" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>6.9640933577555009</v>
       </c>
-      <c r="C42" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E42" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>6.6508871810430383</v>
       </c>
-      <c r="C43" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E43" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>4.2006919136498544</v>
       </c>
-      <c r="C44" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E44" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>3.0337798814707018</v>
       </c>
-      <c r="C45" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="C45" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E45" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>6.9848003153180667</v>
       </c>
-      <c r="C46" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="C46" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E46" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>3.5676222447039212</v>
       </c>
-      <c r="C47" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="C47" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E47" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>5.2882081484461736</v>
       </c>
-      <c r="C48" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="C48" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E48" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>7.2069367492096408</v>
       </c>
-      <c r="C49" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="C49" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E49" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>4.2577025708189895</v>
       </c>
-      <c r="C50" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="C50" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E50" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>5.3110796807448581</v>
       </c>
-      <c r="C51" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="C51" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E51" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>4.8742560969071134</v>
       </c>
-      <c r="C52" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="C52" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E52" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>7.1094277399152759</v>
       </c>
-      <c r="C53" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1530413089687421</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7838789293296831</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="C53" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1530413089687421</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7838789293296831</v>
+      </c>
+      <c r="E53" s="2">
         <f t="shared" si="1"/>
         <v>0.84698482125746999</v>
       </c>
